--- a/ig/ch-ips/StructureDefinition-ch-ips-medicationstatement.xlsx
+++ b/ig/ch-ips/StructureDefinition-ch-ips-medicationstatement.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T10:26:13+00:00</t>
+    <t>2024-12-18T08:08:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch/)</t>
   </si>
   <si>
-    <t>HL7 Switzerland (https://www.hl7.ch/(WORK))</t>
+    <t>HL7 Switzerland (https://www.hl7.ch/(work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/ig/ch-ips/StructureDefinition-ch-ips-medicationstatement.xlsx
+++ b/ig/ch-ips/StructureDefinition-ch-ips-medicationstatement.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>2.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-18T08:08:56+00:00</t>
+    <t>2025-05-22T08:10:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch/)</t>
   </si>
   <si>
-    <t>HL7 Switzerland (https://www.hl7.ch/(work))</t>
+    <t>HL7 Switzerland (https://www.hl7.ch/(Work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -780,7 +780,7 @@
     <t>MedicationStatement.informationSource</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitioner|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitionerrole|RelatedPerson|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-organization)
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitioner|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitionerrole|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-relatedperson|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-organization)
 </t>
   </si>
   <si>
@@ -890,16 +890,16 @@
 </t>
   </si>
   <si>
-    <t>CH Core Dosage</t>
-  </si>
-  <si>
-    <t>Indicates how the medication is/was taken or should be taken by the patient.</t>
+    <t>Details of how medication is/was taken or should be taken</t>
+  </si>
+  <si>
+    <t>Indicates how the medication is/was or should be taken by the patient.</t>
   </si>
   <si>
     <t>The dates included in the dosage on a Medication Statement reflect the dates for a given dose.  For example, "from November 1, 2016 to November 3, 2016, take one tablet daily and from November 4, 2016 to November 7, 2016, take two tablets daily."  It is expected that this specificity may only be populated where the patient brings in their labeled container or where the Medication Statement is derived from a MedicationRequest.</t>
   </si>
   <si>
-    <t>.outboundRelationship[typeCode=COMP].target[classCode=SBADM, moodCode=INT]</t>
+    <t>refer dosageInstruction mapping</t>
   </si>
 </sst>
 </file>
@@ -1223,15 +1223,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="41.74609375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="38.25" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="35.7890625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="32.79296875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1242,26 +1242,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="124.08984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="58.140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="38.25" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="106.38671875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="49.84375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="32.79296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="140.73046875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="28.1484375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="120.65234375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="24.1328125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/ig/ch-ips/StructureDefinition-ch-ips-medicationstatement.xlsx
+++ b/ig/ch-ips/StructureDefinition-ch-ips-medicationstatement.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0-ballot</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-22T08:10:43+00:00</t>
+    <t>2025-12-16T12:02:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -377,7 +377,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -533,7 +533,7 @@
     <t>MedicationStatement.basedOn</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicationRequest|CarePlan|ServiceRequest)
+    <t xml:space="preserve">Reference(MedicationRequest|4.0.1|CarePlan|4.0.1|ServiceRequest|4.0.1)
 </t>
   </si>
   <si>
@@ -555,7 +555,7 @@
     <t>MedicationStatement.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicationAdministration|MedicationDispense|MedicationStatement|Procedure|Observation)
+    <t xml:space="preserve">Reference(MedicationAdministration|4.0.1|MedicationDispense|4.0.1|MedicationStatement|4.0.1|Procedure|4.0.1|Observation|4.0.1)
 </t>
   </si>
   <si>
@@ -628,7 +628,7 @@
     <t>A coded concept indicating the reason for the status of the statement.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/reason-medication-status-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/reason-medication-status-codes|4.0.1</t>
   </si>
   <si>
     <t>Event.statusReason</t>
@@ -649,7 +649,7 @@
     <t>A coded concept identifying where the medication included in the MedicationStatement is expected to be consumed or administered.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-statement-category</t>
+    <t>http://hl7.org/fhir/ValueSet/medication-statement-category|4.0.1</t>
   </si>
   <si>
     <t>.inboundRelationship[typeCode=COMP].source[classCode=OBS, moodCode=EVN, code="type of medication usage"].value</t>
@@ -677,7 +677,7 @@
     <t>A coded concept identifying the substance or product being taken.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/medication-codes|4.0.1</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -717,7 +717,7 @@
     <t>MedicationStatement.context</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter|EpisodeOfCare)
+    <t xml:space="preserve">Reference(Encounter|4.0.1|EpisodeOfCare|4.0.1)
 </t>
   </si>
   <si>
@@ -799,7 +799,7 @@
     <t>MedicationStatement.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -830,7 +830,7 @@
     <t>A coded concept identifying why the medication is being taken.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/condition-code</t>
+    <t>http://hl7.org/fhir/ValueSet/condition-code|4.0.1</t>
   </si>
   <si>
     <t>Event.reasonCode</t>
@@ -845,7 +845,7 @@
     <t>MedicationStatement.reasonReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Condition|Observation|DiagnosticReport)
+    <t xml:space="preserve">Reference(Condition|4.0.1|Observation|4.0.1|DiagnosticReport|4.0.1)
 </t>
   </si>
   <si>
@@ -1248,7 +1248,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="106.38671875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="49.84375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="52.28125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>
